--- a/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.44/accreditamento-checklist_V8.2.xlsx
+++ b/GATEWAY/A1#111#TS23XX/TS23/TServe/V.1.4.44/accreditamento-checklist_V8.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Sviluppo\FSE\Test x validazione\Validazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Dropbox\Sviluppo\FSE\Test x validazione\Validazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFDE095-75A7-462D-AA1D-76860C485B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A373CE-4149-4F72-91CF-81BE3CB354B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27120" windowHeight="13485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="1110" windowWidth="20160" windowHeight="9615" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -4084,48 +4084,6 @@
     <t>Errore semantico. "[ERROR-50| Il valore dell'elemento effectiveTime/high : '20240528000000+0200' deve essere maggiore o uguale di quello di effectiveTime/low : '20240528173557+0200'.]"</t>
   </si>
   <si>
-    <t>2024-07-08T14:51:37Z</t>
-  </si>
-  <si>
-    <t>4ec68779ec6e5cf7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.cf9127938a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-08T14:55:53Z</t>
-  </si>
-  <si>
-    <t>5a53a2d2ccf5a2a9</t>
-  </si>
-  <si>
-    <t>2024-07-08T14:59:44Z</t>
-  </si>
-  <si>
-    <t>3f52c51af9e75633</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.b7cd430caa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-08T15:05:03Z</t>
-  </si>
-  <si>
-    <t>8eedc316927848af</t>
-  </si>
-  <si>
-    <t>bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.7c4fb4be07^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-08T15:13:55Z</t>
-  </si>
-  <si>
-    <t>72707a773b7e92e2</t>
-  </si>
-  <si>
-    <t>bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.8c143fe1bb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2024-05-27T14:28:06Z</t>
   </si>
   <si>
@@ -4199,6 +4157,48 @@
   </si>
   <si>
     <t xml:space="preserve">L’errore viene segnalato a video all’utente finale, che può procedere alla correzione in autonomia o chiamera help-desk </t>
+  </si>
+  <si>
+    <t>eeb17ce29870b07a</t>
+  </si>
+  <si>
+    <t>2024-07-16T07:08:08Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.9d096f95f0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7b00cbbff905c11b</t>
+  </si>
+  <si>
+    <t>2024-07-16T07:11:13Z</t>
+  </si>
+  <si>
+    <t>2024-07-16T07:23:18Z</t>
+  </si>
+  <si>
+    <t>12d855cbe0355cf8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.2f383071a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-07-16T08:08:57Z</t>
+  </si>
+  <si>
+    <t>6b59f246ad0ca35a</t>
+  </si>
+  <si>
+    <t>bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.460e558264^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-07-16T07:16:36Z</t>
+  </si>
+  <si>
+    <t>6e17b533dad9ae60</t>
+  </si>
+  <si>
+    <t>bb5b7360e08ff3496064bf147226c8d591677ce1b2ace1f24748d857f4f2e61c.248b8bb4a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -6402,10 +6402,10 @@
   <dimension ref="A1:W968"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G310" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B307" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K380" sqref="K380"/>
+      <selection pane="bottomRight" activeCell="F311" sqref="F311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17905,16 +17905,16 @@
         <v>594</v>
       </c>
       <c r="F307" s="19">
-        <v>45481</v>
+        <v>45489</v>
       </c>
       <c r="G307" s="20" t="s">
-        <v>867</v>
+        <v>892</v>
       </c>
       <c r="H307" s="20" t="s">
-        <v>868</v>
+        <v>891</v>
       </c>
       <c r="I307" s="20" t="s">
-        <v>866</v>
+        <v>890</v>
       </c>
       <c r="J307" s="21" t="s">
         <v>93</v>
@@ -17952,16 +17952,16 @@
         <v>596</v>
       </c>
       <c r="F308" s="19">
-        <v>45481</v>
+        <v>45489</v>
       </c>
       <c r="G308" s="20" t="s">
-        <v>869</v>
+        <v>893</v>
       </c>
       <c r="H308" s="20" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
       <c r="I308" s="20" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
       <c r="J308" s="21" t="s">
         <v>93</v>
@@ -17999,16 +17999,16 @@
         <v>598</v>
       </c>
       <c r="F309" s="19">
-        <v>45481</v>
+        <v>45489</v>
       </c>
       <c r="G309" s="20" t="s">
-        <v>875</v>
+        <v>896</v>
       </c>
       <c r="H309" s="20" t="s">
-        <v>876</v>
+        <v>897</v>
       </c>
       <c r="I309" s="20" t="s">
-        <v>877</v>
+        <v>898</v>
       </c>
       <c r="J309" s="21" t="s">
         <v>93</v>
@@ -18046,16 +18046,16 @@
         <v>600</v>
       </c>
       <c r="F310" s="19">
-        <v>45481</v>
+        <v>45489</v>
       </c>
       <c r="G310" s="20" t="s">
-        <v>872</v>
+        <v>899</v>
       </c>
       <c r="H310" s="20" t="s">
-        <v>873</v>
+        <v>900</v>
       </c>
       <c r="I310" s="20" t="s">
-        <v>874</v>
+        <v>901</v>
       </c>
       <c r="J310" s="21" t="s">
         <v>93</v>
@@ -18093,16 +18093,16 @@
         <v>602</v>
       </c>
       <c r="F311" s="19">
-        <v>45481</v>
+        <v>45489</v>
       </c>
       <c r="G311" s="20" t="s">
-        <v>875</v>
+        <v>896</v>
       </c>
       <c r="H311" s="20" t="s">
-        <v>876</v>
+        <v>897</v>
       </c>
       <c r="I311" s="20" t="s">
-        <v>877</v>
+        <v>898</v>
       </c>
       <c r="J311" s="21" t="s">
         <v>93</v>
@@ -18143,13 +18143,13 @@
         <v>45439</v>
       </c>
       <c r="G312" s="61" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="H312" s="61" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="I312" s="61" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="J312" s="21" t="s">
         <v>93</v>
@@ -18190,13 +18190,13 @@
         <v>45439</v>
       </c>
       <c r="G313" s="61" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="H313" s="61" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="I313" s="61" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="J313" s="21" t="s">
         <v>93</v>
@@ -18237,13 +18237,13 @@
         <v>45482</v>
       </c>
       <c r="G314" s="20" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="H314" s="20" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="I314" s="20" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="J314" s="21" t="s">
         <v>93</v>
@@ -18284,10 +18284,10 @@
         <v>45482</v>
       </c>
       <c r="G315" s="20" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="H315" s="20" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="I315" s="20"/>
       <c r="J315" s="21" t="s">
@@ -18314,7 +18314,7 @@
         <v>93</v>
       </c>
       <c r="S315" s="59" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="T315" s="21"/>
       <c r="U315" s="22"/>
@@ -18343,13 +18343,13 @@
         <v>45482</v>
       </c>
       <c r="G316" s="20" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="H316" s="20" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="I316" s="20" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="J316" s="21" t="s">
         <v>93</v>
@@ -18390,13 +18390,13 @@
         <v>45482</v>
       </c>
       <c r="G317" s="20" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="H317" s="20" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="I317" s="20" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="J317" s="21" t="s">
         <v>93</v>
@@ -18437,13 +18437,13 @@
         <v>45482</v>
       </c>
       <c r="G318" s="20" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="H318" s="20" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="I318" s="20" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="J318" s="21" t="s">
         <v>93</v>
@@ -20366,7 +20366,7 @@
         <v>45482</v>
       </c>
       <c r="G369" s="20" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="H369" s="20"/>
       <c r="I369" s="20"/>
@@ -20382,7 +20382,7 @@
         <v>93</v>
       </c>
       <c r="O369" s="21" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="P369" s="21" t="s">
         <v>780</v>
@@ -20394,7 +20394,7 @@
         <v>93</v>
       </c>
       <c r="S369" s="59" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="T369" s="21"/>
       <c r="U369" s="22"/>
@@ -20423,7 +20423,7 @@
         <v>45482</v>
       </c>
       <c r="G370" s="20" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="H370" s="20"/>
       <c r="I370" s="20"/>
@@ -20439,7 +20439,7 @@
         <v>93</v>
       </c>
       <c r="O370" s="21" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="P370" s="21" t="s">
         <v>780</v>
@@ -20451,7 +20451,7 @@
         <v>93</v>
       </c>
       <c r="S370" s="59" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="T370" s="21"/>
       <c r="U370" s="22"/>
@@ -20773,16 +20773,16 @@
         <v>834</v>
       </c>
       <c r="F379" s="52">
-        <v>45481</v>
+        <v>45489</v>
       </c>
       <c r="G379" s="20" t="s">
-        <v>864</v>
+        <v>889</v>
       </c>
       <c r="H379" s="20" t="s">
-        <v>865</v>
+        <v>888</v>
       </c>
       <c r="I379" s="20" t="s">
-        <v>866</v>
+        <v>890</v>
       </c>
       <c r="J379" s="54" t="s">
         <v>93</v>
@@ -28348,6 +28348,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="152ec67562f6729267530f2154e17cab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bea1cbc65ad49ac624eb199c90a8cd28" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -28605,28 +28626,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">137048 - Stesura checklist RAP</UserStoryALM>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0F090B6-07CB-41CE-9867-FFD42C97BE05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28643,29 +28668,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>